--- a/testdata/QSSE10.xlsx
+++ b/testdata/QSSE10.xlsx
@@ -1,35 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13740" windowHeight="6495"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CT college" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Qspider" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Ravi</t>
   </si>
   <si>
     <t>988776543</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Ravi
+Ranjan</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Sanjit</t>
+  </si>
+  <si>
+    <t>Raushan</t>
+  </si>
+  <si>
+    <t>Minakshi</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Vikram Jeet</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>1308139</t>
+  </si>
+  <si>
+    <t>1308140</t>
+  </si>
+  <si>
+    <t>1308141</t>
+  </si>
+  <si>
+    <t>1308122</t>
+  </si>
+  <si>
+    <t>1308143</t>
+  </si>
+  <si>
+    <t>1308138</t>
+  </si>
+  <si>
+    <t>1308120</t>
+  </si>
+  <si>
+    <t>1308123</t>
+  </si>
+  <si>
+    <t>1308112</t>
+  </si>
+  <si>
+    <t>1308150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +182,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -167,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,6 +327,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,55 +503,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F6:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F6:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:7">
+    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F6" s="2">
         <v>998876655</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G10" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1308139</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1308140</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1308141</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1308122</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1308143</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1308138</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1308120</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1308123</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1308112</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1308150</v>
       </c>
     </row>
   </sheetData>
@@ -434,12 +832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
